--- a/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8203124058410151</v>
+        <v>0.7835395513687594</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.825314092919163</v>
+        <v>0.7908815357757814</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9118468286074746</v>
+        <v>0.8945162797093182</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2824923453738666</v>
+        <v>0.22535951291259165</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.724560250514337</v>
+        <v>3.781978500606198</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02810521796539798</v>
+        <v>0.03126626534980028</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.273550724637681</v>
+        <v>1.7533444816053512</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8220227002601929</v>
+        <v>0.6738439579199602</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2694229451195426</v>
+        <v>0.20492721187577645</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8009679261291863</v>
+        <v>0.7837550487394762</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8060973209432287</v>
+        <v>0.7872552758835724</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8893110193543984</v>
+        <v>0.89036997473053</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.274273553249074</v>
+        <v>0.23569162613006067</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>4.157226320257378</v>
+        <v>3.7004690910818328</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03125765928588079</v>
+        <v>0.03201028582118382</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.037453386682680244</v>
+        <v>0.05872284729093892</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2589669256924647</v>
+        <v>0.23564700696393648</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8002549960221808</v>
+        <v>0.764172480543222</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8058677434098247</v>
+        <v>0.7704099511695532</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8950694352989563</v>
+        <v>0.8781733069085669</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2739814234426753</v>
+        <v>0.21852560460867038</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>4.151127471366383</v>
+        <v>3.355589473908359</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.031412484024107415</v>
+        <v>0.03386786944443337</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04126508765682425</v>
+        <v>0.05792799746637376</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2647110800507685</v>
+        <v>0.1560637344017369</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7997223002367183</v>
+        <v>0.7620690432200009</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8027714468020505</v>
+        <v>0.7659999760835156</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8904269306116658</v>
+        <v>0.8763751893715185</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.27008557494387736</v>
+        <v>0.21432566303817446</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>4.070259776211734</v>
+        <v>3.27350383672142</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03142462134899257</v>
+        <v>0.03413837906374451</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03990435514515098</v>
+        <v>0.05990139553681456</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2589669256924647</v>
+        <v>0.1560637344017369</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8017405996461419</v>
+        <v>0.7733360842092365</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.806554032312101</v>
+        <v>0.7648744493604944</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8959439267083196</v>
+        <v>0.8730942716478712</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2748560624864096</v>
+        <v>0.2132719410449206</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.169402143410792</v>
+        <v>3.2530469244203934</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03110050632327</v>
+        <v>0.03324320641368841</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04357888280596142</v>
+        <v>0.05189276954640916</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.27413481018831676</v>
+        <v>0.18343881149211216</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8031499141600621</v>
+        <v>0.7498425170581989</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8109304939519387</v>
+        <v>0.7576529636104216</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8791283923959576</v>
+        <v>0.8697252230737312</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.28053131755001215</v>
+        <v>0.20668049738414215</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.289060202790187</v>
+        <v>3.126314127450179</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.030818516383020515</v>
+        <v>0.03614504688245931</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03920467633578459</v>
+        <v>0.0511367085723776</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2647110800507685</v>
+        <v>0.18343881149211216</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8047671162230071</v>
+        <v>0.7513897977463747</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8111412621444336</v>
+        <v>0.7579032430077431</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8805380355694166</v>
+        <v>0.868099838669836</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2808089754065241</v>
+        <v>0.206904158750081</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.294962845535748</v>
+        <v>3.130579907074031</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.030563138745069662</v>
+        <v>0.03595442746453866</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03998942889056114</v>
+        <v>0.05134378541114053</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.27912516895223793</v>
+        <v>0.18343881149211216</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8228579484021806</v>
+        <v>0.7888880138738358</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8312814378061164</v>
+        <v>0.8108628397493125</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9087596734704311</v>
+        <v>0.9075614091466744</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3093502105025171</v>
+        <v>0.2632236757617455</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.927030120437168</v>
+        <v>4.287168310418602</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02786561372795662</v>
+        <v>0.031477135030118064</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04023598731433635</v>
+        <v>0.056461668290191176</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.29922929591917713</v>
+        <v>0.23943419177872918</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8340507884469676</v>
+        <v>0.7821387309892032</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8345874338324218</v>
+        <v>0.7914105345014054</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9105766120619155</v>
+        <v>0.8894088203928392</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3144491031014235</v>
+        <v>0.2402229015403504</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>5.045489911491414</v>
+        <v>3.794105961246341</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.025860317389912842</v>
+        <v>0.031081180112339905</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03858775818898233</v>
+        <v>0.06214181564703427</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.29922929591917713</v>
+        <v>0.23564700696393648</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8024135982111593</v>
+        <v>0.798167799701542</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8082396125228308</v>
+        <v>0.7972598639627455</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9085307436132196</v>
+        <v>0.8919115779146325</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2770217093251143</v>
+        <v>0.24681886686662963</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.214841360909635</v>
+        <v>3.9324224573680167</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03112181631608109</v>
+        <v>0.02825363941153038</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04832571686287963</v>
+        <v>0.06102163045023111</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2554345411586854</v>
+        <v>0.23943419177872918</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8154823633950465</v>
+        <v>0.7562105617101144</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8202985471122629</v>
+        <v>0.7675616388851358</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9129845250079228</v>
+        <v>0.8875833792181248</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2932764698371099</v>
+        <v>0.21579984741172525</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.56478528097777</v>
+        <v>3.3022158442505543</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.029104925367718682</v>
+        <v>0.03533803740093579</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04593569356057018</v>
+        <v>0.06609394072041454</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.27413481018831676</v>
+        <v>0.1560637344017369</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7948654403607344</v>
+        <v>0.7775665993014048</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8002716248665394</v>
+        <v>0.7882641132638294</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8858642835614866</v>
+        <v>0.8957840216130284</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2669989534725234</v>
+        <v>0.23678031762043816</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>4.006799856714344</v>
+        <v>3.7228649588627887</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.032218641509320474</v>
+        <v>0.03196572363383983</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04240229417507855</v>
+        <v>0.06343639515249229</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2540089430774692</v>
+        <v>0.2269111121251343</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8009022613105418</v>
+        <v>0.7477446211156185</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8060982930312023</v>
+        <v>0.7646944178631981</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8901930234024257</v>
+        <v>0.8656454440817353</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.274274791169138</v>
+        <v>0.21310406948316493</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>4.15725217499461</v>
+        <v>3.2497929327431803</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03129409035417445</v>
+        <v>0.03653389305818625</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04288237887174385</v>
+        <v>0.05836438704631731</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2589669256924647</v>
+        <v>0.1560637344017369</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7562736706818523</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7702015183676841</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8710314060736888</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2183244982235882</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.351638848510882</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03524566081818545</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06010487103648751</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1560637344017369</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>92.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.640154734858897</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6494376155523967</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6443561860793977</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5457715203399461</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>2.989130434782609</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.3787601152221083</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6495124547663895</v>
+        <v>0.35082054530157913</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6517261824015715</v>
+        <v>0.4355375409653975</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.633393914964787</v>
+        <v>0.38894916613441594</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5486044616342249</v>
+        <v>0.32371103116229527</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.4565217391304346</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.4855571602753272</v>
+        <v>0.26659001127895315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6611175635677232</v>
+        <v>0.5830224634799316</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6822465522113819</v>
+        <v>0.5988006289220165</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6732062155404432</v>
+        <v>0.5836825373966884</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5855778867924861</v>
+        <v>0.4640557898526754</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.217391304347826</v>
+        <v>2.989130434782609</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1750715382152503</v>
+        <v>1.3787601152221083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6319575306976764</v>
+        <v>0.6077182945084464</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.644874194426909</v>
+        <v>0.6387455532122542</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6231497579175539</v>
+        <v>0.6251977818738801</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5394389317327458</v>
+        <v>0.48306076749547133</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.4239130434782608</v>
+        <v>3.4565217391304346</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3361721252890386</v>
+        <v>1.4855571602753272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6227160427755731</v>
+        <v>0.6128925111427246</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6004138199129624</v>
+        <v>0.6487673224528476</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6169178860587329</v>
+        <v>0.671591878705953</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5166505601003618</v>
+        <v>0.580916079315147</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7608695652173914</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4852355066696785</v>
+        <v>0.4288898323512862</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6227732395133012</v>
+        <v>0.6946620000618082</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5982386274063851</v>
+        <v>0.7114574131538182</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6140975622975338</v>
+        <v>0.7403056725683714</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5023834616950673</v>
+        <v>0.5896104190406083</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8695652173913043</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.658924524539177</v>
+        <v>1.4852355066696785</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.37141985339875705</v>
+        <v>0.6915495814567882</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3746444475435816</v>
+        <v>0.7093302082441497</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3063510380887626</v>
+        <v>0.7410144282884721</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.25704876109061114</v>
+        <v>0.5708226220564563</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.141304347826087</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2277158433728876</v>
+        <v>1.658924524539177</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3477991793978532</v>
+        <v>0.04564439237678828</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3346993398764973</v>
+        <v>0.17368493667717322</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2630716123996002</v>
+        <v>0.0594838397302639</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.19046702091952813</v>
+        <v>0.03375879788704795</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.619565217391304</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6364152144066952</v>
+        <v>0.10425720702853739</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6255010309690896</v>
+        <v>0.3971509395928046</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6279083544012743</v>
+        <v>0.39244135732471225</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5631850723745531</v>
+        <v>0.32997762676656406</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5286677469126121</v>
+        <v>0.2696584789199817</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>0.9239130434782609</v>
+        <v>3.141304347826087</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.3766793592879703</v>
+        <v>1.2277158433728876</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5002139894688004</v>
+        <v>0.3578219365306737</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5005673394339075</v>
+        <v>0.32970826183830265</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.42246674775308174</v>
+        <v>0.26258361700656413</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.37580917563789085</v>
+        <v>0.18014557828895936</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.7608695652173914</v>
+        <v>3.619565217391304</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4703633790040789</v>
+        <v>1.6364152144066952</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7000823791419538</v>
+        <v>0.6465599228956421</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7064273766961362</v>
+        <v>0.6247248383515984</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7035293142068</v>
+        <v>0.5651566212091496</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6169558345801757</v>
+        <v>0.5399705548864356</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.5869565217391304</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3839914716837178</v>
+        <v>1.3766793592879703</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>92.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6408403802842314</v>
+        <v>0.48498520767241404</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6494279175936176</v>
+        <v>0.4251831828324054</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.640303991353475</v>
+        <v>0.3460701780691037</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5510043897668714</v>
+        <v>0.3409139125989522</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.7608695652173914</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4703633790040789</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>92.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.7107597953268727</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6503639200988529</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6532318239096835</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.6178703555594705</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.5869565217391304</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3839914716837178</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>92.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6456497126645445</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6007133172753072</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5960162979075658</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5437818809110079</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.5326086956521738</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3214301855596344</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.07608695652173914</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07608695652173914</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.07608695652173914</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.29347826086956524</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.16304347826086957</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.33695652173913043</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.043478260869565216</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07608695652173914</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.03260869565217391</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.391304347826087</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.3804347826086957</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07608695652173914</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.043478260869565216</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.021739130434782608</v>
       </c>
-      <c r="D46" t="n" s="111">
-        <v>0.11956521739130435</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.41304347826086957</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.08695652173913043</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.31521739130434784</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7608695652173914</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.043478260869565216</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.08695652173913043</v>
+        <v>0.29347826086956524</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.08695652173913043</v>
+        <v>0.16304347826086957</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.021739130434782608</v>
+        <v>0.33695652173913043</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7608695652173914</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.05434782608695652</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.05434782608695652</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05434782608695652</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.07608695652173914</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.010869565217391304</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16304347826086957</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G49" t="n" s="114">
         <v>0.021739130434782608</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="G49" t="n" s="114">
-        <v>0.10869565217391304</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.010869565217391304</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.16304347826086957</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.13043478260869565</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10869565217391304</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.06521739130434782</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.5217391304347826</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.6086956521739131</v>
+        <v>0.010869565217391304</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.15217391304347827</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.021739130434782608</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.14130434782608695</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.07608695652173914</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2826086956521739</v>
+        <v>0.010869565217391304</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.2391304347826087</v>
+        <v>0.16304347826086957</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.043478260869565216</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="E52" t="n" s="112">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="F52" t="n" s="113">
         <v>0.30434782608695654</v>
       </c>
-      <c r="F52" t="n" s="113">
-        <v>0.13043478260869565</v>
-      </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.30434782608695654</v>
+        <v>0.010869565217391304</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.1956521739130435</v>
+        <v>0.16304347826086957</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2391304347826087</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.13043478260869565</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.13043478260869565</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.31521739130434784</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.16304347826086957</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.29347826086956524</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.13043478260869565</v>
+        <v>0.14130434782608695</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.09782608695652174</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.31521739130434784</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.16304347826086957</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.29347826086956524</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.09782608695652174</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8651968697630796</v>
+        <v>0.8746901146575766</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8684935747379723</v>
+        <v>0.9778979855887093</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8879037441326607</v>
+        <v>0.9688584073542573</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6227906561194051</v>
+        <v>0.9365008739636475</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.604191186913425</v>
+        <v>44.24474472739252</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02346065173444558</v>
+        <v>0.005025805235174574</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.2717391304347827</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.1379155888040164</v>
+        <v>1.1706811009234999</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6329332706454884</v>
+        <v>0.9401267913629437</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8094765389141891</v>
+        <v>0.9716069570387986</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8177658710541711</v>
+        <v>0.9746564161248572</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7622977888696857</v>
+        <v>0.9505656752064311</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5993293477693373</v>
+        <v>0.9505656752064311</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.487446318561225</v>
+        <v>38.45771856603142</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03469011442917953</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0097625887619979</v>
-      </c>
+        <v>0.005575902050699046</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5657691370348874</v>
+        <v>0.9505656752064311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8294165999241242</v>
+        <v>0.626048071548351</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8363549769592202</v>
+        <v>0.9691395382489434</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.80367255796718</v>
+        <v>0.9401267913629437</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6301222399944281</v>
+        <v>0.9401267913629439</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.110787736885849</v>
+        <v>31.403922146944694</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03195564350926108</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.016991695900890648</v>
-      </c>
+        <v>0.01446993401560717</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7000974042560896</v>
+        <v>0.9401267913629437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8208373100359739</v>
+        <v>0.6575415995705851</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8190953912353827</v>
+        <v>0.9576874009900025</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7782668651639868</v>
+        <v>0.9188101553215675</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6014758753957388</v>
+        <v>0.9188101553215675</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.5277751453040205</v>
+        <v>22.633622689159868</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.032428220318741804</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.020445469523550627</v>
-      </c>
+        <v>0.01723353239287894</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5657691370348874</v>
+        <v>0.9188101553215675</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.851090671160527</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8535793216713562</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8232569952383406</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6602351613181162</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.8296364380684205</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.026523307777888392</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.015264606716073844</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7000974042560896</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>92.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9547543695280544</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9738139794608152</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9514141245822653</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9417325937437776</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4288898323512862</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>92.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8721777968792945</v>
+        <v>0.9841053349788803</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8675924870928541</v>
+        <v>0.9773696825792574</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8384591526307766</v>
+        <v>0.961470516066723</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.75843427808992</v>
+        <v>0.9534057582789647</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>2.989130434782609</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.3787601152221083</v>
+        <v>1.4852355066696785</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>92.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8570306667702862</v>
+        <v>0.9891533045658528</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8403200463873112</v>
+        <v>0.9846305765966101</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7866146129432685</v>
+        <v>0.9768550869854069</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7174326733608367</v>
+        <v>0.9619017924398725</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.4565217391304346</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.4855571602753272</v>
+        <v>1.658924524539177</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>92.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8490798749472236</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8656913650096825</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8259159335776589</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7455236634919781</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.217391304347826</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1750715382152503</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>92.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8069624689598873</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8136498377148764</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7407735817138608</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.656060779499453</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.4239130434782608</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3361721252890386</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.07608695652173914</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.13043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.021739130434782608</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.34782608695652173</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.34782608695652173</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="G27" t="n" s="229">
         <v>0.07608695652173914</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.07608695652173914</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.29347826086956524</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.16304347826086957</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.33695652173913043</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07608695652173914</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.03260869565217391</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.3804347826086957</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07608695652173914</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.11956521739130435</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.41304347826086957</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.31521739130434784</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7320691901281031</v>
+        <v>0.5690687772732895</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7510732192037541</v>
+        <v>0.6360124061023269</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6013749010369622</v>
+        <v>0.5828058764822193</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6013749010369622</v>
+        <v>0.36806802007023576</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.0172455402399248</v>
+        <v>1.7473463842317862</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.052487160016313546</v>
+        <v>0.039368624184483</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.380434782608696</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2846720307024602</v>
+        <v>0.8667300624883166</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6013749010369622</v>
+        <v>0.2696898963814798</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6013749010369623</v>
+        <v>0.7320691901281031</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6013749010369623</v>
+        <v>0.7510732192037541</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.36165177159721595</v>
+        <v>0.6013749010369622</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6013749010369623</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6013749010369623</v>
-      </c>
+        <v>0.6013749010369622</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.0172455402399248</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.052487160016313546</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6013749010369623</v>
+        <v>0.6013749010369622</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.36165177159721595</v>
+        <v>0.057473248187780435</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6013749010369623</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.36165177159721595</v>
-      </c>
+        <v>0.3781231687722848</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.23313926279226527</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.23313926279226527</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>0.6080354658426338</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.024264288843431524</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6013749010369623</v>
+        <v>0.2331392627922652</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.08699578567128219</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.4248122272218997</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.26968989638147967</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.2696898963814798</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>0.7385626873987577</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.030944146036299896</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.2696898963814798</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>92.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8608480717769929</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8948114050002275</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6939116199611367</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6013749010369621</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.141304347826087</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2277158433728876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>92.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9242564060953633</v>
+        <v>0.31415871279742974</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.8948114050002275</v>
+        <v>0.6585020167067178</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.6939116199611369</v>
+        <v>0.33487918996023197</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6013749010369622</v>
+        <v>0.2773529656842844</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9891304347826086</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.10425720702853739</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>92.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8614492921136894</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.819853630712355</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7177129331368787</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6083711799316862</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.141304347826087</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2277158433728876</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>92.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9226398777171483</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8038380604903618</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6896738898008369</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6053342341059936</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.619565217391304</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6364152144066952</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.010869565217391304</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9891304347826086</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.010869565217391304</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16304347826086957</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.021739130434782608</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.391304347826087</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.30434782608695654</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.10869565217391304</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.010869565217391304</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.16304347826086957</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.13043478260869565</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10869565217391304</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.06521739130434782</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.5217391304347826</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.910528653931586</v>
+        <v>0.742902071671764</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9110591371144527</v>
+        <v>0.8672424355715214</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8366470284715629</v>
+        <v>0.8203634444630513</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.836647028471563</v>
+        <v>0.6852880821384054</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>10.243425884982043</v>
+        <v>6.532527463161893</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.018589845750133477</v>
+        <v>0.021123567585235474</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.559782608695652</v>
+        <v>2.4565217391304346</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2963227605324372</v>
+        <v>0.9591375237733153</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.836647028471563</v>
+        <v>0.6713711893158154</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8366470284715629</v>
+        <v>0.861583276783793</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8366470284715629</v>
+        <v>0.8629471007992153</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6999782502502963</v>
+        <v>0.7589331168371907</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8366470284715629</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8366470284715629</v>
-      </c>
+        <v>0.7589331168371904</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.296452726147615</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.02867395267806583</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8366470284715629</v>
+        <v>0.7589331168371906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6999782502502963</v>
+        <v>0.37852314755770955</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8366470284715629</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6999782502502963</v>
-      </c>
+        <v>0.803377721965693</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6713711893158154</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6713711893158154</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.085893673887342</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.03434294867835645</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8366470284715629</v>
+        <v>0.6713711893158154</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3781925343811394</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7696547199130714</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6255599402622105</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6255599402622103</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.341308836988612</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.03877668880644219</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6255599402622103</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>92.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9602400673510805</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9582919775495262</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8765344484736066</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8366470284715628</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.5869565217391304</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3839914716837178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>92.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9562983129122351</v>
+        <v>0.7390137254833871</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9582919775495262</v>
+        <v>0.8613117851582737</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8765344484736066</v>
+        <v>0.7366964196563492</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8366470284715629</v>
+        <v>0.6923209663336144</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.5326086956521738</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3214301855596344</v>
+        <v>0.26659001127895315</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>92.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9289480067203818</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8941460826842906</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8218008133899461</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7720969760006615</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>2.989130434782609</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.3787601152221083</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>92.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.942139737569903</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9113245553840533</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8569120661128341</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7857639561735504</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.4565217391304346</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.4855571602753272</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.07608695652173914</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9239130434782609</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.07608695652173914</v>
+      </c>
+      <c r="C26" t="n" s="455">
         <v>0.13043478260869565</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="D26" t="n" s="456">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.07608695652173914</v>
+      </c>
+      <c r="H26" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.31521739130434784</v>
-      </c>
-      <c r="C24" t="n" s="455">
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.07608695652173914</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.29347826086956524</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.16304347826086957</v>
       </c>
-      <c r="D24" t="n" s="456">
-        <v>0.29347826086956524</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.09782608695652174</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.33695652173913043</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9716069570387986</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9746564161248572</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9505656752064311</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9505656752064311</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>38.45771856603142</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.005575902050699046</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.8152173913043478</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5525898096589634</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9505656752064311</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5402780463697114</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5411324178804997</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.37092634349604336</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.37092634349604325</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.1792779419740658</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.0956183314314038</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.3423913043478262</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1788645771894777</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.37092634349604325</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9505656752064312</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9505656752064312</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9035751028806582</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9505656752064312</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9505656752064312</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9505656752064312</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.37092634349604325</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.37092634349604325</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.1375863522993449</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.37092634349604325</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.37092634349604325</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.37092634349604325</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9035751028806582</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9505656752064312</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9035751028806582</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9505656752064312</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.1375863522993449</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.37092634349604325</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.1375863522993449</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.37092634349604325</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>92.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.986143345268829</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.98756409290902</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9628449454837184</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9505656752064312</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4852355066696785</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8152233548550788</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8279270328646249</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5042383839987731</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.3709263434960432</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>0.9239130434782609</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.3766793592879703</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>92.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9889084668962609</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9875640929090201</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9628449454837185</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.950565675206431</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.658924524539177</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8402195036830068</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8279270328646249</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.504238383998773</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3709263434960432</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>1.7608695652173914</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4703633790040789</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="C23" t="n" s="569">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.14130434782608695</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.07608695652173914</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="D24" t="n" s="571">
         <v>0.043478260869565216</v>
       </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.07608695652173914</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="E24" t="n" s="572">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5402780463697114</v>
+        <v>0.910528653931586</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5411324178804997</v>
+        <v>0.9110591371144527</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.37092634349604336</v>
+        <v>0.8366470284715629</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.37092634349604325</v>
+        <v>0.836647028471563</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.1792779419740658</v>
+        <v>10.243425884982043</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.0956183314314038</v>
+        <v>0.018589845750133477</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.3423913043478262</v>
+        <v>1.559782608695652</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1788645771894777</v>
+        <v>1.2963227605324372</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.37092634349604325</v>
+        <v>0.836647028471563</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.37092634349604325</v>
+        <v>0.8366470284715629</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.37092634349604325</v>
+        <v>0.8366470284715629</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.1375863522993449</v>
+        <v>0.6999782502502963</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.37092634349604325</v>
+        <v>0.8366470284715629</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.37092634349604325</v>
+        <v>0.8366470284715629</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.37092634349604325</v>
+        <v>0.8366470284715629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.1375863522993449</v>
+        <v>0.6999782502502963</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.37092634349604325</v>
+        <v>0.8366470284715629</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.1375863522993449</v>
+        <v>0.6999782502502963</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.37092634349604325</v>
+        <v>0.8366470284715629</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>92.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8152233548550788</v>
+        <v>0.9602400673510805</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8279270328646249</v>
+        <v>0.9582919775495262</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5042383839987731</v>
+        <v>0.8765344484736066</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.3709263434960432</v>
+        <v>0.8366470284715628</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>0.9239130434782609</v>
+        <v>1.5869565217391304</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.3766793592879703</v>
+        <v>1.3839914716837178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>92.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8402195036830068</v>
+        <v>0.9562983129122351</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8279270328646249</v>
+        <v>0.9582919775495262</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.504238383998773</v>
+        <v>0.8765344484736066</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3709263434960432</v>
+        <v>0.8366470284715629</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>1.7608695652173914</v>
+        <v>1.5326086956521738</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4703633790040789</v>
+        <v>1.3214301855596344</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.6086956521739131</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.15217391304347827</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.021739130434782608</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.14130434782608695</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.07608695652173914</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2826086956521739</v>
+        <v>0.31521739130434784</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.2391304347826087</v>
+        <v>0.16304347826086957</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.043478260869565216</v>
+        <v>0.29347826086956524</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.30434782608695654</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.13043478260869565</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8462052812415942</v>
+        <v>0.8180924868789048</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8498679652754394</v>
+        <v>0.8396534030198012</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9232272514517624</v>
+        <v>0.9200220082694921</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3614631634350778</v>
+        <v>0.34368087468849545</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>5.660803617526717</v>
+        <v>5.236490320549113</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.024710862546111677</v>
+        <v>0.0269318446248672</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.0521739130434784</v>
+        <v>1.5043478260869565</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.9147723263098431</v>
+        <v>0.8038250648184511</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.32255030498216164</v>
+        <v>0.296835305307024</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8249710122675025</v>
+        <v>0.8105953182556344</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8286651286952651</v>
+        <v>0.8205835670850913</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8982159486375861</v>
+        <v>0.9024893156582998</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3495475933387157</v>
+        <v>0.3369494376616254</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.836523484010488</v>
+        <v>4.573625468712037</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.02821946205377544</v>
+        <v>0.02897848499363812</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03226374242758738</v>
+        <v>0.042043315879157446</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.31958840733137417</v>
+        <v>0.3132199536272141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8281619668776775</v>
+        <v>0.7877313853670782</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8320739885387092</v>
+        <v>0.8137260569309028</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.9058981381705228</v>
+        <v>0.8978547673649426</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3550700330383023</v>
+        <v>0.32677247608157095</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.9550035834115755</v>
+        <v>4.368437385947512</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.027785341865005583</v>
+        <v>0.03104732734538784</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.033796881504206476</v>
+        <v>0.04262619786273516</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.32297614187539014</v>
+        <v>0.2829244778796288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8267165222730063</v>
+        <v>0.7925100314285148</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8283673627783131</v>
+        <v>0.8149749582726321</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.9001699985024321</v>
+        <v>0.8973662003179157</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.34907123274471197</v>
+        <v>0.32859239117098116</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.826397683957769</v>
+        <v>4.4046738250354665</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.027925418364712597</v>
+        <v>0.03024858451118982</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03270642005700666</v>
+        <v>0.04219697818315584</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.3132199536272141</v>
+        <v>0.2942747254389825</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8333357483681467</v>
+        <v>0.821602409432705</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8366886965302912</v>
+        <v>0.839708219024055</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9086649890879069</v>
+        <v>0.9177788781274767</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3627540294384422</v>
+        <v>0.3679164083134142</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>5.123274866797455</v>
+        <v>5.238623052981554</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.026955272854511443</v>
+        <v>0.027808642597833538</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.033845734689884326</v>
+        <v>0.051306474042408054</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.32297614187539014</v>
+        <v>0.3132199536272141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8248558171422109</v>
+        <v>0.7969764766779777</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8289326519303757</v>
+        <v>0.8202197651281421</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8967779495391037</v>
+        <v>0.9053547189719806</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3499763893819527</v>
+        <v>0.3363980301548246</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.8456509163455355</v>
+        <v>4.562346721333249</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.028215330172721497</v>
+        <v>0.02969201632325273</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.034490937120974195</v>
+        <v>0.057900386599243805</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.30764190073236</v>
+        <v>0.28541965726158947</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8306230910411347</v>
+        <v>0.8004154236484792</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8348691197255966</v>
+        <v>0.8210860835539827</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9017615220085022</v>
+        <v>0.9058818785723609</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3596950447570355</v>
+        <v>0.33771326316502687</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>5.055802514576729</v>
+        <v>4.589280140216059</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.027361546100138332</v>
+        <v>0.02914372758809751</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.034083516963029456</v>
+        <v>0.05699083513552395</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.31958840733137417</v>
+        <v>0.30527296407915583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8329719311978865</v>
+        <v>0.7989882817589019</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8394971537105382</v>
+        <v>0.8281175785554971</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8875857079196614</v>
+        <v>0.921721052128022</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.36755200719584086</v>
+        <v>0.348672369403951</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>5.230419105443976</v>
+        <v>4.81793060393252</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02670081528326123</v>
+        <v>0.02987361798819045</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.0274990088459458</v>
+        <v>0.06385576833787282</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.32266826002112237</v>
+        <v>0.2766299895702773</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.836681605889305</v>
+        <v>0.819073173287689</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8405362869436673</v>
+        <v>0.8430061012292077</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8896458014179948</v>
+        <v>0.9265274979542719</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3693512776694717</v>
+        <v>0.37368100201097426</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>5.271019160620805</v>
+        <v>5.369674285622893</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.026053944055708825</v>
+        <v>0.026504858738665333</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.02782557338357627</v>
+        <v>0.05722878720992176</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.3234673043035484</v>
+        <v>0.30527296407915583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8344622126547243</v>
+        <v>0.7871424505478867</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8391223057046151</v>
+        <v>0.8193221240752905</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9248927992699181</v>
+        <v>0.8920070362710116</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.36690616409092186</v>
+        <v>0.3350431077145957</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>5.2159021135889505</v>
+        <v>4.534711955639276</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.026941306438952994</v>
+        <v>0.03134562462265596</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04032622546872599</v>
+        <v>0.05711595389311434</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.3132199536272141</v>
+        <v>0.2766299895702773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8463155110812448</v>
+        <v>0.7955925904751014</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8491066691489478</v>
+        <v>0.8258425939589948</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9282146533735857</v>
+        <v>0.8976474021221806</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.38470786269538304</v>
+        <v>0.34507026120798984</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>5.627198129698035</v>
+        <v>4.741932098854015</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.025017849260254812</v>
+        <v>0.03014589431247208</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.035834724795727656</v>
+        <v>0.05676475400968658</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.3234673043035484</v>
+        <v>0.2942747254389825</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7096750843455096</v>
+        <v>0.6503902634098967</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7179382326749839</v>
+        <v>0.6776531912219257</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7075713274632194</v>
+        <v>0.6902516094913589</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6215236736028225</v>
+        <v>0.6179529896369209</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>2.989130434782609</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.3787601152221083</v>
+        <v>0.4288898323512862</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6857986197784063</v>
+        <v>0.726197602679692</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6874538650511332</v>
+        <v>0.7349186809993649</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6627007813495851</v>
+        <v>0.753399569749872</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5838583057550121</v>
+        <v>0.6187107214008319</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.4565217391304346</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.4855571602753272</v>
+        <v>1.4852355066696785</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6988134231538838</v>
+        <v>0.7132608985642285</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7205677863250153</v>
+        <v>0.724678067617009</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.7057545248349332</v>
+        <v>0.7453993549674427</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.6234379815276455</v>
+        <v>0.5860052164883581</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.217391304347826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1750715382152503</v>
+        <v>1.658924524539177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.629920375344054</v>
+        <v>0.4118056016327248</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6450375085448339</v>
+        <v>0.5034028781644624</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6138560686976142</v>
+        <v>0.447435548221074</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5287739895102442</v>
+        <v>0.3837032701536349</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.4239130434782608</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3361721252890386</v>
+        <v>0.26659001127895315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.7107286888225792</v>
+        <v>0.6584228094934278</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.7155712396558176</v>
+        <v>0.6807559464692082</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.7051725889958799</v>
+        <v>0.6545895019519862</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.6224279826346237</v>
+        <v>0.543164947042541</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.5869565217391304</v>
+        <v>2.989130434782609</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3839914716837178</v>
+        <v>1.3787601152221083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6558408197017747</v>
+        <v>0.6452580724380541</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6619233812127976</v>
+        <v>0.673355165606647</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6453458225055051</v>
+        <v>0.6460910494142074</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5608503551532943</v>
+        <v>0.5161996649761359</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.5326086956521738</v>
+        <v>3.4565217391304346</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3214301855596344</v>
+        <v>1.4855571602753272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6450139684055227</v>
+        <v>0.6437884733361816</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6185522364976718</v>
+        <v>0.6116885688175865</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6310321855905106</v>
+        <v>0.5295669065538706</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5340076801581046</v>
+        <v>0.5254097666142143</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.7608695652173914</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4852355066696785</v>
+        <v>1.3766793592879703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6367027243127912</v>
+        <v>0.5103996111488526</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6086201004207475</v>
+        <v>0.47096566408421153</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.620096682889832</v>
+        <v>0.37548959323632497</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5084800338247758</v>
+        <v>0.3558848736730648</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8695652173913043</v>
+        <v>1.7608695652173914</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.658924524539177</v>
+        <v>1.4703633790040789</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.6218568219937571</v>
+        <v>0.7266682283026041</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.6221173489676463</v>
+        <v>0.6883800586897176</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.54187394997591</v>
+        <v>0.6787593716175956</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.5156890800293737</v>
+        <v>0.6280746235315898</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>0.9239130434782609</v>
+        <v>1.5869565217391304</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.3766793592879703</v>
+        <v>1.3839914716837178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>92.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5216353646835061</v>
+        <v>0.6650827840726338</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5238503593565143</v>
+        <v>0.6319575349967768</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4328876642992598</v>
+        <v>0.6156026405283943</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3895887169966362</v>
+        <v>0.5568878861093364</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>1.7608695652173914</v>
+        <v>1.5326086956521738</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4703633790040789</v>
+        <v>1.3214301855596344</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.07608695652173914</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.13043478260869565</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.021739130434782608</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.34782608695652173</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.34782608695652173</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07608695652173914</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.07608695652173914</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="C40" t="n" s="798">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="D40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="800">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="F40" t="n" s="801">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G40" t="n" s="802">
         <v>0.021739130434782608</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.29347826086956524</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.16304347826086957</v>
-      </c>
-      <c r="G40" t="n" s="802">
-        <v>0.33695652173913043</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,22 +8272,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.043478260869565216</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.07608695652173914</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.03260869565217391</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.391304347826087</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.3804347826086957</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="G41" t="n" s="802">
         <v>0.07608695652173914</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.043478260869565216</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.021739130434782608</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.11956521739130435</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.41304347826086957</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.08695652173913043</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.31521739130434784</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.30434782608695654</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.1956521739130435</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2391304347826087</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.13043478260869565</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.13043478260869565</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.31521739130434784</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C44" t="n" s="798">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="E44" t="n" s="800">
+        <v>0.29347826086956524</v>
+      </c>
+      <c r="F44" t="n" s="801">
         <v>0.16304347826086957</v>
       </c>
-      <c r="D44" t="n" s="799">
-        <v>0.29347826086956524</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.09782608695652174</v>
-      </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.33695652173913043</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7608695652173914</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.043478260869565216</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.14130434782608695</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.07608695652173914</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.021739130434782608</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7608695652173914</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.07608695652173914</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.6086956521739131</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.15217391304347827</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.021739130434782608</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.14130434782608695</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.07608695652173914</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2826086956521739</v>
+        <v>0.31521739130434784</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.2391304347826087</v>
+        <v>0.16304347826086957</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.043478260869565216</v>
+        <v>0.29347826086956524</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.30434782608695654</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.13043478260869565</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
